--- a/DigitalMegaFlareOffline.Modules.Common/Sample/Excel/OutTest.xlsx
+++ b/DigitalMegaFlareOffline.Modules.Common/Sample/Excel/OutTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyoda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyoda\source\repos\DigitalMegaFlareOffline\DigitalMegaFlareOffline.Modules.Common\Sample\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6239A46-5934-4FD0-9B15-774F4A02C65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56889FC0-5272-4A6B-B0AD-31A4D3C11C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35985" yWindow="2400" windowWidth="16245" windowHeight="11850" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
@@ -390,22 +390,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cs_asp/crud/ListBox</t>
-  </si>
-  <si>
-    <t>cs_asp/crud/CheckBox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Excel</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アップされたExcelのID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cs_asp/crud/ListBox</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -461,6 +450,18 @@
   </si>
   <si>
     <t>MyProject</t>
+  </si>
+  <si>
+    <t>cs_asp/memo/ListBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/memo/ListBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/memo/CheckBox</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1524,6 +1525,109 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0181C79D-DF76-439D-9F2C-DE036D1CA803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1428750"/>
+          <a:ext cx="5172075" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>var index1 = int.Parse(Model.General.Index); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Model.RootList[index1].FieldList[index2].ValueList[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>index3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1704,19 +1808,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1732,7 +1836,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1571625" y="476250"/>
+          <a:off x="3457575" y="0"/>
           <a:ext cx="3867150" cy="2771775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1769,6 +1873,16 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■未実装</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2250,7 +2364,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2259,7 +2373,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2314,7 +2428,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2346,7 +2460,9 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2489,7 +2605,7 @@
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>53</v>
@@ -2520,10 +2636,10 @@
         <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -2779,6 +2895,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2789,8 +2906,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2830,7 +2947,7 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2841,7 +2958,7 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2852,7 +2969,7 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2863,7 +2980,7 @@
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2923,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2937,13 +3054,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2959,9 +3076,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -2970,7 +3085,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2978,7 +3093,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/DigitalMegaFlareOffline.Modules.Common/Sample/Excel/OutTest.xlsx
+++ b/DigitalMegaFlareOffline.Modules.Common/Sample/Excel/OutTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyoda\source\repos\DigitalMegaFlareOffline\DigitalMegaFlareOffline.Modules.Common\Sample\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56889FC0-5272-4A6B-B0AD-31A4D3C11C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72282778-1FAC-46F4-ACD9-F25E54654678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35985" yWindow="2400" windowWidth="16245" windowHeight="11850" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="ValueList" sheetId="8" r:id="rId5"/>
     <sheet name="Out" sheetId="9" r:id="rId6"/>
     <sheet name="FieldOutList" sheetId="10" r:id="rId7"/>
-    <sheet name="Excel" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -184,13 +183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（種類とか？）</t>
-    <rPh sb="1" eb="3">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>説明（不使用）</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
@@ -242,19 +234,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Magical</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RootList.0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>RootList.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RootList.2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -335,29 +319,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cs_asp/database/Model</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cs_asp/database/ApplicationDbContext</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rirical</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フィールドなし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期値なし</t>
-    <rPh sb="0" eb="3">
-      <t>ショキチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マスタではない</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -366,10 +331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Models/@(Model.Name).cs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Infrastructure/@(Model.Name).cs</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -387,14 +348,6 @@
   </si>
   <si>
     <t>Dddd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Excel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アップされたExcelのID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -436,31 +389,166 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>どんな生成しようとして作ったか覚えてない。。。</t>
+    <t>MyProject</t>
+  </si>
+  <si>
+    <t>cs_asp/memo/ListBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/memo/ListBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/memo/CheckBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/crud/Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IdComment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクタID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（この構成だけ）</t>
+  </si>
+  <si>
+    <t>一通り機能を網羅したサンプル</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトトオ</t>
+    </rPh>
     <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1段階だけ、他で生成したソースを代入することができる。</t>
+    <rPh sb="1" eb="3">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>セイセイ</t>
     </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MyProject</t>
-  </si>
-  <si>
-    <t>cs_asp/memo/ListBox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cs_asp/memo/ListBox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cs_asp/memo/CheckBox</t>
+    <rPh sb="16" eb="18">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Outシートを使った生成について</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CharacterId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID名（この構成だけ）</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IsConflict</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaxLength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decimal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複可能</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力可能な長さ</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小数桁</t>
+    <rPh sb="0" eb="2">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力できる数値の最小値（なければ自動設定）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ジドウセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力できる数値の最大値（なければ自動設定）</t>
+    <rPh sb="8" eb="11">
+      <t>サイダイチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -524,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -535,6 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -561,338 +650,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4F5C77-9554-4965-A866-0D44BFDA74AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266701" y="238126"/>
-          <a:ext cx="3800474" cy="2657474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■この方法で生成するように作り変える？</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・スクリプト</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>使いまわせる、入力用シートもフレキシブルになる。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>出力テストはしやすいの？部分テストとか。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ファイルが多くなりがち。ネーミングも大変。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>↓あっ、結構分かりやすいかも？</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(@Model){</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@(FieldList)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@(MethodList)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1554DFC-F3D2-490A-8B16-58DB0BECC5D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="2971800"/>
-          <a:ext cx="4676775" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>最も再入力するのは</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Excel</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>なので、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Excel</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>が最もシンプルになるように組む。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ハードコード </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>&gt; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>スクリプト </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>&gt; Excel</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　の順で複雑さは背負うべき。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -907,8 +674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143626" y="247651"/>
-          <a:ext cx="1962150" cy="1152524"/>
+          <a:off x="6534150" y="276225"/>
+          <a:ext cx="4286250" cy="1647825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -946,21 +713,113 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・グローバルな値を格納する</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Razor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>からは以下のようにアクセスできる。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@(Model.Settings.IdComment)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・シート名は必ず</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>【Project】</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>通常シート。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>縦に伸ばす</a:t>
+            <a:t>"Settings"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>にすること</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -971,19 +830,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -999,7 +858,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390525" y="2171700"/>
+          <a:off x="390525" y="1933575"/>
           <a:ext cx="2771775" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1074,7 +933,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>行目はコメント（邪魔なら消す）</a:t>
+            <a:t>行目はコメント</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1117,16 +976,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1704976</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>771526</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2628901</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1141,8 +1000,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3857626" y="2162175"/>
-          <a:ext cx="3600450" cy="733425"/>
+          <a:off x="3686176" y="1933575"/>
+          <a:ext cx="3600450" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1198,6 +1057,54 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>スクリプト名を各行に書く。</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>真偽値は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>空欄</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>,False,FALSE,false</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>などが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>false</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1,True,TRUE,true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>とされる</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1207,14 +1114,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1885950</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>2476500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1229,8 +1136,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="3971925"/>
-          <a:ext cx="5343525" cy="962025"/>
+          <a:off x="371475" y="3733801"/>
+          <a:ext cx="6762750" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1334,16 +1241,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1358,8 +1265,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848100" y="3114675"/>
-          <a:ext cx="4686300" cy="733425"/>
+          <a:off x="7629525" y="2914650"/>
+          <a:ext cx="4686300" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1427,6 +1334,13 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>で付随した値にアクセスできる。</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■例</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1435,20 +1349,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1463,8 +1377,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="400050" y="2143125"/>
-          <a:ext cx="2847975" cy="714375"/>
+          <a:off x="400050" y="1666875"/>
+          <a:ext cx="2847975" cy="1762125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1512,6 +1426,21 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>値をぶら下げることができる</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>RootList.0.1.2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のように複数指定できる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1520,7 +1449,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1623,20 +1552,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1651,8 +1580,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="2419350"/>
-          <a:ext cx="3838575" cy="1104900"/>
+          <a:off x="381000" y="2419349"/>
+          <a:ext cx="6391275" cy="1419226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1691,8 +1620,30 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>なんとかして他で生成したコードを代入したい。</a:t>
-          </a:r>
+            <a:t>なんとかして他で生成したコードを代入したい場合。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"Out"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>というシートを作ることで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>段階まで生成・代入させることができる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
@@ -1711,17 +1662,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>に出力結果が入る。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>もできる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1753,7 +1693,54 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Model.Aaaa</a:t>
+            <a:t>Razor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>から参照する場合は、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@(Model.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Out.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Aaaa)</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -1777,7 +1764,30 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Model.Bbbb</a:t>
+            <a:t>@(Model.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Out.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bbbb)</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
@@ -1808,27 +1818,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9208DB79-24BB-4CD7-B6DF-A4FDBED1BFAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C24BF4C-F67A-4910-9CCF-83FB266994F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,8 +1846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3457575" y="0"/>
-          <a:ext cx="3867150" cy="2771775"/>
+          <a:off x="400050" y="1190625"/>
+          <a:ext cx="6391275" cy="1419226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1876,217 +1886,11 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■未実装</a:t>
+            <a:t>使い方忘れたてへぺろ★</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>または、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Excel</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を指定する。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>番号を指定するだけ？それと、再帰処理。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>その</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Excel</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>RootList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に従っていくつかのソースが出力されるが、ディレクトリ構造までアレしたくないので、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>か</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で指定することになる。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>→</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は被る可能性があるので</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Model.AaaaOut.0.0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>でアクセス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Model.AaaaOut.Out</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Key.Excel</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>RootList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Key</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2362,9 +2166,9 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2373,14 +2177,23 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2389,27 +2202,26 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2417,32 +2229,51 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2458,10 +2289,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2470,7 +2301,7 @@
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.125" customWidth="1"/>
     <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2482,15 +2313,15 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2502,10 +2333,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -2522,10 +2353,10 @@
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -2539,16 +2370,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -2559,19 +2390,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2579,19 +2407,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2599,52 +2424,18 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2661,9 +2452,11 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2672,9 +2465,13 @@
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="44.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,8 +2490,23 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2713,13 +2525,28 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2734,12 +2561,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -2751,77 +2578,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2853,10 +2643,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2875,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2886,10 +2676,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2906,9 +2696,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2925,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2936,7 +2724,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2944,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2955,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2966,10 +2754,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2977,10 +2765,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3040,13 +2828,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3054,62 +2842,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80C42B4-C10C-4B68-A964-F4E77D1B16CD}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/DigitalMegaFlareOffline.Modules.Common/Sample/Excel/OutTest.xlsx
+++ b/DigitalMegaFlareOffline.Modules.Common/Sample/Excel/OutTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyoda\source\repos\DigitalMegaFlareOffline\DigitalMegaFlareOffline.Modules.Common\Sample\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72282778-1FAC-46F4-ACD9-F25E54654678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7933A4E-E1FE-4C4C-9F94-70BCABE6793D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7950" yWindow="1680" windowWidth="16245" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -548,6 +548,199 @@
     <t>入力できる数値の最大値（なければ自動設定）</t>
     <rPh sb="8" eb="11">
       <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定画面でどのセルを読むかを設定できるようにするかもしれない。</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初のシートのA1が一覧に表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Excel一覧画面</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★ソフトについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★Excelについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★Razorについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Documentシート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート名の最初に”Doc”が付いているシートは、ソース生成時に無視する。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好きなように文書を書いて良い。</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Settingsシート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"Settings"という名前のシートは必須。</t>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グローバル的な変数・設定値などを列挙する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"Name"と"Value"の項目があり、項目の追加はできない（確か）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■RootListシート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"RootList"という名前のシートは必須。</t>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"Name"にIdという項目を作った場合、Razorからは@(Model.Settings.Id)のようにして参照する。</t>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Isが最初についている列は0,1,型文字列をbool型とする</t>
+  </si>
+  <si>
+    <t>・真偽値について</t>
+    <rPh sb="1" eb="3">
+      <t>シンギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Razor内でbool型として</t>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"OutList"が最後についているシートが、そのリスト内容を列挙するシート</t>
+    <rPh sb="28" eb="30">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>レッキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Listシート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストデータを示すシート</t>
+    <rPh sb="7" eb="8">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RootListシート以外は"Parent"が必要</t>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1231,7 +1424,35 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>で書くのがベスト</a:t>
+            <a:t>で書くのがベスト（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Plural</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：複数形</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2166,9 +2387,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2182,12 +2405,127 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/DigitalMegaFlareOffline.Modules.Common/Sample/Excel/OutTest.xlsx
+++ b/DigitalMegaFlareOffline.Modules.Common/Sample/Excel/OutTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyoda\source\repos\DigitalMegaFlareOffline\DigitalMegaFlareOffline.Modules.Common\Sample\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7933A4E-E1FE-4C4C-9F94-70BCABE6793D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E9537F-8604-49AD-BA8C-AE6648BD4E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="1680" windowWidth="16245" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
@@ -1390,6 +1390,14 @@
               </a:solidFill>
             </a:rPr>
             <a:t>Name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>で終わる列</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2389,7 +2397,7 @@
   </sheetPr>
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -2629,7 +2637,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
